--- a/dicionario_dados/Dicionario-de-Dados.xlsx
+++ b/dicionario_dados/Dicionario-de-Dados.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/010e55072ecb6e9c/Documentos/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wwwzb\OneDrive\Área de Trabalho\Faculdade\BancoDeDadosII\trabalhoBanco\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C8023967-CF7F-47F8-B493-AEA3DF933DFE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{79242A60-20AE-4FB8-B4BF-0BF0EF67AC45}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{8A75A3C3-1CC3-42DF-908E-18684CFF6B01}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="362" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="411" uniqueCount="142">
   <si>
     <t>Tabela</t>
   </si>
@@ -120,15 +120,9 @@
     <t>date</t>
   </si>
   <si>
-    <t>varchar(15)</t>
-  </si>
-  <si>
     <t>1 - 50</t>
   </si>
   <si>
-    <t>1 - 15</t>
-  </si>
-  <si>
     <t>sem limite</t>
   </si>
   <si>
@@ -360,9 +354,6 @@
     <t>Data que foi realizado o pagamento</t>
   </si>
   <si>
-    <t>Método utilizado para efetuar o pagamento</t>
-  </si>
-  <si>
     <t>Relatório</t>
   </si>
   <si>
@@ -397,6 +388,78 @@
   </si>
   <si>
     <t>3 - 10</t>
+  </si>
+  <si>
+    <t>varchar(13)</t>
+  </si>
+  <si>
+    <t>1 - 13</t>
+  </si>
+  <si>
+    <t>time</t>
+  </si>
+  <si>
+    <t>Nivel_Acesso</t>
+  </si>
+  <si>
+    <t>char(1)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 </t>
+  </si>
+  <si>
+    <t>Indica o nível de acesso do usuário no sistema                                                                  V = Somente Leitura                                              B = Básico                                                              A = Administrador</t>
+  </si>
+  <si>
+    <t>Método utilizado para efetuar o pagamento C = Crédito                                                            D = Débito                                                              E = Espécie                                                                        P = Pix</t>
+  </si>
+  <si>
+    <t>idx_Data_Nascimento</t>
+  </si>
+  <si>
+    <t>PK__Paciente__5F36506165944D24</t>
+  </si>
+  <si>
+    <t>ID_Paciente, Nome, Endereco, Telefone, Email</t>
+  </si>
+  <si>
+    <t>idx_Relatorio</t>
+  </si>
+  <si>
+    <t>PK__Relatori__59C0CFDCBDCDD710</t>
+  </si>
+  <si>
+    <t>ID_Relatorio, ID_Paciente</t>
+  </si>
+  <si>
+    <t>idx_Data_Hora</t>
+  </si>
+  <si>
+    <t>PK__Agendame__56ED4BB2B6B957BA</t>
+  </si>
+  <si>
+    <t>ID_Agendamento, Duracao, ID_Paciente, ID_Fisioterapeuta</t>
+  </si>
+  <si>
+    <t>sp_helpindex cliente;</t>
+  </si>
+  <si>
+    <t>PK__Historic__9FF8AFF7832404C9</t>
+  </si>
+  <si>
+    <t>ID_HistoricoMedico, ID_Paciente</t>
+  </si>
+  <si>
+    <t>PK__Fisioter__1AD5DF7B81B39F35</t>
+  </si>
+  <si>
+    <t>PK__Usuario__DE4431C5D1C3D6B7</t>
+  </si>
+  <si>
+    <t>PK__Tratamen__DD2FDF031A5513FC</t>
+  </si>
+  <si>
+    <t>PK__Pagament__B25E7A22A498D6B4</t>
   </si>
 </sst>
 </file>
@@ -480,7 +543,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -520,6 +583,15 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -835,10 +907,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A588904-58D6-4340-A48F-92FCD18181A8}">
-  <dimension ref="A1:H136"/>
+  <dimension ref="A1:H137"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A112" sqref="A112:B112"/>
+      <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -918,7 +990,7 @@
       </c>
       <c r="B5" s="11"/>
       <c r="C5" s="6" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D5" s="6" t="s">
         <v>8</v>
@@ -931,7 +1003,7 @@
       </c>
       <c r="G5" s="2"/>
       <c r="H5" s="6" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
@@ -943,7 +1015,7 @@
         <v>26</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E6" s="6" t="s">
         <v>9</v>
@@ -951,7 +1023,7 @@
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
       <c r="H6" s="6" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
@@ -963,7 +1035,7 @@
         <v>27</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E7" s="3" t="s">
         <v>9</v>
@@ -971,7 +1043,7 @@
       <c r="F7" s="3"/>
       <c r="G7" s="3"/>
       <c r="H7" s="3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
@@ -983,7 +1055,7 @@
         <v>26</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E8" s="3" t="s">
         <v>9</v>
@@ -991,7 +1063,7 @@
       <c r="F8" s="3"/>
       <c r="G8" s="3"/>
       <c r="H8" s="3" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
@@ -1000,16 +1072,16 @@
       </c>
       <c r="B9" s="12"/>
       <c r="C9" s="3" t="s">
-        <v>28</v>
+        <v>118</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>30</v>
+        <v>119</v>
       </c>
       <c r="E9" s="3"/>
       <c r="F9" s="3"/>
       <c r="G9" s="3"/>
       <c r="H9" s="3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
@@ -1021,7 +1093,7 @@
         <v>26</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E10" s="3" t="s">
         <v>9</v>
@@ -1029,7 +1101,7 @@
       <c r="F10" s="3"/>
       <c r="G10" s="3"/>
       <c r="H10" s="3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
@@ -1065,24 +1137,38 @@
       <c r="H12" s="9"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A13" s="8"/>
-      <c r="B13" s="8"/>
-      <c r="C13" s="4"/>
-      <c r="D13" s="5"/>
-      <c r="E13" s="5"/>
-      <c r="F13" s="8"/>
-      <c r="G13" s="8"/>
-      <c r="H13" s="8"/>
+      <c r="A13" s="14" t="s">
+        <v>126</v>
+      </c>
+      <c r="B13" s="14"/>
+      <c r="C13" s="15"/>
+      <c r="D13" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="E13" s="16"/>
+      <c r="F13" s="14" t="s">
+        <v>128</v>
+      </c>
+      <c r="G13" s="14"/>
+      <c r="H13" s="14"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A14" s="8"/>
-      <c r="B14" s="8"/>
-      <c r="C14" s="4"/>
-      <c r="D14" s="5"/>
-      <c r="E14" s="5"/>
-      <c r="F14" s="8"/>
-      <c r="G14" s="8"/>
-      <c r="H14" s="8"/>
+      <c r="A14" s="14" t="s">
+        <v>127</v>
+      </c>
+      <c r="B14" s="14"/>
+      <c r="C14" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="D14" s="16"/>
+      <c r="E14" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="F14" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="G14" s="14"/>
+      <c r="H14" s="14"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" s="8"/>
@@ -1110,7 +1196,7 @@
         <v>0</v>
       </c>
       <c r="B19" s="10" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C19" s="11"/>
       <c r="D19" s="11"/>
@@ -1124,7 +1210,7 @@
         <v>1</v>
       </c>
       <c r="B20" s="10" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="C20" s="11"/>
       <c r="D20" s="11"/>
@@ -1171,11 +1257,11 @@
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23" s="10" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B23" s="11"/>
       <c r="C23" s="6" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D23" s="6" t="s">
         <v>8</v>
@@ -1188,7 +1274,7 @@
       </c>
       <c r="G23" s="2"/>
       <c r="H23" s="6" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.3">
@@ -1200,7 +1286,7 @@
         <v>26</v>
       </c>
       <c r="D24" s="7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E24" s="6" t="s">
         <v>9</v>
@@ -1208,19 +1294,19 @@
       <c r="F24" s="2"/>
       <c r="G24" s="2"/>
       <c r="H24" s="6" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A25" s="12" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B25" s="12"/>
       <c r="C25" s="6" t="s">
         <v>26</v>
       </c>
       <c r="D25" s="7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E25" s="3" t="s">
         <v>9</v>
@@ -1228,7 +1314,7 @@
       <c r="F25" s="3"/>
       <c r="G25" s="3"/>
       <c r="H25" s="3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.3">
@@ -1237,16 +1323,16 @@
       </c>
       <c r="B26" s="12"/>
       <c r="C26" s="3" t="s">
-        <v>28</v>
+        <v>118</v>
       </c>
       <c r="D26" s="7" t="s">
-        <v>30</v>
+        <v>119</v>
       </c>
       <c r="E26" s="3"/>
       <c r="F26" s="3"/>
       <c r="G26" s="3"/>
       <c r="H26" s="3" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.3">
@@ -1258,7 +1344,7 @@
         <v>26</v>
       </c>
       <c r="D27" s="7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E27" s="3" t="s">
         <v>9</v>
@@ -1266,7 +1352,7 @@
       <c r="F27" s="3"/>
       <c r="G27" s="3"/>
       <c r="H27" s="3" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.3">
@@ -1302,14 +1388,22 @@
       <c r="H29" s="9"/>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A30" s="8"/>
-      <c r="B30" s="8"/>
-      <c r="C30" s="4"/>
-      <c r="D30" s="5"/>
-      <c r="E30" s="5"/>
-      <c r="F30" s="8"/>
-      <c r="G30" s="8"/>
-      <c r="H30" s="8"/>
+      <c r="A30" s="14" t="s">
+        <v>138</v>
+      </c>
+      <c r="B30" s="14"/>
+      <c r="C30" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="D30" s="16"/>
+      <c r="E30" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="F30" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="G30" s="14"/>
+      <c r="H30" s="14"/>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A31" s="8"/>
@@ -1346,7 +1440,7 @@
         <v>0</v>
       </c>
       <c r="B36" s="10" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C36" s="11"/>
       <c r="D36" s="11"/>
@@ -1360,7 +1454,7 @@
         <v>1</v>
       </c>
       <c r="B37" s="10" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C37" s="11"/>
       <c r="D37" s="11"/>
@@ -1407,11 +1501,11 @@
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A40" s="10" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B40" s="11"/>
       <c r="C40" s="6" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D40" s="6" t="s">
         <v>8</v>
@@ -1424,7 +1518,7 @@
       </c>
       <c r="G40" s="2"/>
       <c r="H40" s="6" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.3">
@@ -1436,7 +1530,7 @@
         <v>26</v>
       </c>
       <c r="D41" s="7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E41" s="6" t="s">
         <v>9</v>
@@ -1444,19 +1538,19 @@
       <c r="F41" s="2"/>
       <c r="G41" s="2"/>
       <c r="H41" s="6" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A42" s="12" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B42" s="12"/>
       <c r="C42" s="6" t="s">
         <v>26</v>
       </c>
       <c r="D42" s="7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E42" s="3" t="s">
         <v>9</v>
@@ -1464,19 +1558,19 @@
       <c r="F42" s="3"/>
       <c r="G42" s="3"/>
       <c r="H42" s="3" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A43" s="12" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B43" s="12"/>
       <c r="C43" s="3" t="s">
         <v>26</v>
       </c>
       <c r="D43" s="7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E43" s="3" t="s">
         <v>9</v>
@@ -1484,60 +1578,78 @@
       <c r="F43" s="3"/>
       <c r="G43" s="3"/>
       <c r="H43" s="3" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A44" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="B44" s="9"/>
-      <c r="C44" s="9"/>
-      <c r="D44" s="9"/>
-      <c r="E44" s="9"/>
-      <c r="F44" s="9"/>
-      <c r="G44" s="9"/>
-      <c r="H44" s="9"/>
+        <v>53</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" ht="72" x14ac:dyDescent="0.3">
+      <c r="A44" s="12" t="s">
+        <v>121</v>
+      </c>
+      <c r="B44" s="12"/>
+      <c r="C44" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="D44" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="E44" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F44" s="3"/>
+      <c r="G44" s="3"/>
+      <c r="H44" s="3" t="s">
+        <v>124</v>
+      </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A45" s="9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B45" s="9"/>
-      <c r="C45" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D45" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E45" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F45" s="9" t="s">
-        <v>14</v>
-      </c>
+      <c r="C45" s="9"/>
+      <c r="D45" s="9"/>
+      <c r="E45" s="9"/>
+      <c r="F45" s="9"/>
       <c r="G45" s="9"/>
       <c r="H45" s="9"/>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A46" s="8"/>
-      <c r="B46" s="8"/>
-      <c r="C46" s="4"/>
-      <c r="D46" s="5"/>
-      <c r="E46" s="5"/>
-      <c r="F46" s="8"/>
-      <c r="G46" s="8"/>
-      <c r="H46" s="8"/>
+      <c r="A46" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="B46" s="9"/>
+      <c r="C46" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E46" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F46" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="G46" s="9"/>
+      <c r="H46" s="9"/>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A47" s="8"/>
+      <c r="A47" s="14" t="s">
+        <v>139</v>
+      </c>
       <c r="B47" s="8"/>
-      <c r="C47" s="4"/>
-      <c r="D47" s="5"/>
-      <c r="E47" s="5"/>
-      <c r="F47" s="8"/>
-      <c r="G47" s="8"/>
-      <c r="H47" s="8"/>
+      <c r="C47" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="D47" s="16"/>
+      <c r="E47" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="F47" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="G47" s="14"/>
+      <c r="H47" s="14"/>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A48" s="8"/>
@@ -1559,26 +1671,22 @@
       <c r="G49" s="8"/>
       <c r="H49" s="8"/>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A52" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B52" s="10" t="s">
-        <v>56</v>
-      </c>
-      <c r="C52" s="11"/>
-      <c r="D52" s="11"/>
-      <c r="E52" s="11"/>
-      <c r="F52" s="11"/>
-      <c r="G52" s="11"/>
-      <c r="H52" s="11"/>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A50" s="8"/>
+      <c r="B50" s="8"/>
+      <c r="C50" s="4"/>
+      <c r="D50" s="5"/>
+      <c r="E50" s="5"/>
+      <c r="F50" s="8"/>
+      <c r="G50" s="8"/>
+      <c r="H50" s="8"/>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A53" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B53" s="10" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C53" s="11"/>
       <c r="D53" s="11"/>
@@ -1588,68 +1696,60 @@
       <c r="H53" s="11"/>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A54" s="13"/>
-      <c r="B54" s="13"/>
-      <c r="C54" s="13"/>
-      <c r="D54" s="13"/>
-      <c r="E54" s="13"/>
-      <c r="F54" s="13"/>
-      <c r="G54" s="13"/>
-      <c r="H54" s="13"/>
+      <c r="A54" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B54" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="C54" s="11"/>
+      <c r="D54" s="11"/>
+      <c r="E54" s="11"/>
+      <c r="F54" s="11"/>
+      <c r="G54" s="11"/>
+      <c r="H54" s="11"/>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A55" s="9" t="s">
+      <c r="A55" s="13"/>
+      <c r="B55" s="13"/>
+      <c r="C55" s="13"/>
+      <c r="D55" s="13"/>
+      <c r="E55" s="13"/>
+      <c r="F55" s="13"/>
+      <c r="G55" s="13"/>
+      <c r="H55" s="13"/>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A56" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="B55" s="9"/>
-      <c r="C55" s="1" t="s">
+      <c r="B56" s="9"/>
+      <c r="C56" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D55" s="1" t="s">
+      <c r="D56" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E55" s="1" t="s">
+      <c r="E56" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F55" s="1" t="s">
+      <c r="F56" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="G55" s="1" t="s">
+      <c r="G56" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="H55" s="1" t="s">
+      <c r="H56" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A56" s="10" t="s">
-        <v>58</v>
-      </c>
-      <c r="B56" s="11"/>
-      <c r="C56" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="D56" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="E56" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="F56" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="G56" s="2"/>
-      <c r="H56" s="6" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A57" s="10" t="s">
-        <v>20</v>
+        <v>56</v>
       </c>
       <c r="B57" s="11"/>
       <c r="C57" s="6" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D57" s="6" t="s">
         <v>8</v>
@@ -1657,66 +1757,68 @@
       <c r="E57" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="F57" s="2"/>
-      <c r="G57" s="6" t="s">
-        <v>10</v>
-      </c>
+      <c r="F57" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="G57" s="2"/>
       <c r="H57" s="6" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="58" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A58" s="12" t="s">
-        <v>59</v>
-      </c>
-      <c r="B58" s="12"/>
+      <c r="A58" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="B58" s="11"/>
       <c r="C58" s="6" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D58" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="E58" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F58" s="3"/>
-      <c r="G58" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="H58" s="3" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="E58" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="F58" s="2"/>
+      <c r="G58" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="H58" s="6" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A59" s="12" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="B59" s="12"/>
-      <c r="C59" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="D59" s="7" t="s">
-        <v>31</v>
+      <c r="C59" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="D59" s="6" t="s">
+        <v>8</v>
       </c>
       <c r="E59" s="3" t="s">
         <v>9</v>
       </c>
       <c r="F59" s="3"/>
-      <c r="G59" s="3"/>
+      <c r="G59" s="3" t="s">
+        <v>10</v>
+      </c>
       <c r="H59" s="3" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A60" s="12" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="B60" s="12"/>
       <c r="C60" s="3" t="s">
-        <v>32</v>
+        <v>59</v>
       </c>
       <c r="D60" s="7" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E60" s="3" t="s">
         <v>9</v>
@@ -1724,19 +1826,19 @@
       <c r="F60" s="3"/>
       <c r="G60" s="3"/>
       <c r="H60" s="3" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A61" s="12" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="B61" s="12"/>
       <c r="C61" s="3" t="s">
-        <v>64</v>
+        <v>120</v>
       </c>
       <c r="D61" s="7" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E61" s="3" t="s">
         <v>9</v>
@@ -1744,101 +1846,121 @@
       <c r="F61" s="3"/>
       <c r="G61" s="3"/>
       <c r="H61" s="3" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A62" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="B62" s="9"/>
-      <c r="C62" s="9"/>
-      <c r="D62" s="9"/>
-      <c r="E62" s="9"/>
-      <c r="F62" s="9"/>
-      <c r="G62" s="9"/>
-      <c r="H62" s="9"/>
+        <v>67</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A62" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="B62" s="12"/>
+      <c r="C62" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="D62" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="E62" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F62" s="3"/>
+      <c r="G62" s="3"/>
+      <c r="H62" s="3" t="s">
+        <v>68</v>
+      </c>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A63" s="9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B63" s="9"/>
-      <c r="C63" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D63" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E63" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F63" s="9" t="s">
-        <v>14</v>
-      </c>
+      <c r="C63" s="9"/>
+      <c r="D63" s="9"/>
+      <c r="E63" s="9"/>
+      <c r="F63" s="9"/>
       <c r="G63" s="9"/>
       <c r="H63" s="9"/>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A64" s="8"/>
-      <c r="B64" s="8"/>
-      <c r="C64" s="4"/>
-      <c r="D64" s="5"/>
-      <c r="E64" s="5"/>
-      <c r="F64" s="8"/>
-      <c r="G64" s="8"/>
-      <c r="H64" s="8"/>
+      <c r="A64" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="B64" s="9"/>
+      <c r="C64" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D64" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E64" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F64" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="G64" s="9"/>
+      <c r="H64" s="9"/>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A65" s="8"/>
-      <c r="B65" s="8"/>
-      <c r="C65" s="4"/>
-      <c r="D65" s="5"/>
-      <c r="E65" s="5"/>
-      <c r="F65" s="8"/>
-      <c r="G65" s="8"/>
-      <c r="H65" s="8"/>
+      <c r="A65" s="14" t="s">
+        <v>132</v>
+      </c>
+      <c r="B65" s="14"/>
+      <c r="C65" s="15"/>
+      <c r="D65" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="E65" s="15"/>
+      <c r="F65" s="14" t="s">
+        <v>134</v>
+      </c>
+      <c r="G65" s="14"/>
+      <c r="H65" s="14"/>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A66" s="8"/>
-      <c r="B66" s="8"/>
-      <c r="C66" s="4"/>
-      <c r="D66" s="5"/>
-      <c r="E66" s="5"/>
-      <c r="F66" s="8"/>
-      <c r="G66" s="8"/>
-      <c r="H66" s="8"/>
+      <c r="A66" s="14" t="s">
+        <v>133</v>
+      </c>
+      <c r="B66" s="14"/>
+      <c r="C66" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="D66" s="15"/>
+      <c r="E66" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="F66" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="G66" s="14"/>
+      <c r="H66" s="14"/>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A67" s="8"/>
-      <c r="B67" s="8"/>
-      <c r="C67" s="4"/>
-      <c r="D67" s="5"/>
-      <c r="E67" s="5"/>
-      <c r="F67" s="8"/>
-      <c r="G67" s="8"/>
-      <c r="H67" s="8"/>
-    </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A70" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B70" s="10" t="s">
-        <v>71</v>
-      </c>
-      <c r="C70" s="11"/>
-      <c r="D70" s="11"/>
-      <c r="E70" s="11"/>
-      <c r="F70" s="11"/>
-      <c r="G70" s="11"/>
-      <c r="H70" s="11"/>
+      <c r="A67" s="14"/>
+      <c r="B67" s="14"/>
+      <c r="C67" s="15"/>
+      <c r="D67" s="15"/>
+      <c r="E67" s="15"/>
+      <c r="F67" s="14"/>
+      <c r="G67" s="14"/>
+      <c r="H67" s="14"/>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A68" s="8"/>
+      <c r="B68" s="8"/>
+      <c r="C68" s="4"/>
+      <c r="D68" s="4"/>
+      <c r="E68" s="4"/>
+      <c r="F68" s="8"/>
+      <c r="G68" s="8"/>
+      <c r="H68" s="8"/>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A71" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B71" s="10" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="C71" s="11"/>
       <c r="D71" s="11"/>
@@ -1848,70 +1970,62 @@
       <c r="H71" s="11"/>
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A72" s="13" t="s">
+      <c r="A72" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B72" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="C72" s="11"/>
+      <c r="D72" s="11"/>
+      <c r="E72" s="11"/>
+      <c r="F72" s="11"/>
+      <c r="G72" s="11"/>
+      <c r="H72" s="11"/>
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A73" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="B72" s="13"/>
-      <c r="C72" s="13"/>
-      <c r="D72" s="13"/>
-      <c r="E72" s="13"/>
-      <c r="F72" s="13"/>
-      <c r="G72" s="13"/>
-      <c r="H72" s="13"/>
-    </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A73" s="9" t="s">
+      <c r="B73" s="13"/>
+      <c r="C73" s="13"/>
+      <c r="D73" s="13"/>
+      <c r="E73" s="13"/>
+      <c r="F73" s="13"/>
+      <c r="G73" s="13"/>
+      <c r="H73" s="13"/>
+    </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A74" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="B73" s="9"/>
-      <c r="C73" s="1" t="s">
+      <c r="B74" s="9"/>
+      <c r="C74" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D73" s="1" t="s">
+      <c r="D74" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E73" s="1" t="s">
+      <c r="E74" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F73" s="1" t="s">
+      <c r="F74" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="G73" s="1" t="s">
+      <c r="G74" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="H73" s="1" t="s">
+      <c r="H74" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A74" s="10" t="s">
-        <v>73</v>
-      </c>
-      <c r="B74" s="11"/>
-      <c r="C74" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="D74" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="E74" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="F74" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="G74" s="2"/>
-      <c r="H74" s="6" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A75" s="10" t="s">
-        <v>20</v>
+        <v>71</v>
       </c>
       <c r="B75" s="11"/>
       <c r="C75" s="6" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D75" s="6" t="s">
         <v>8</v>
@@ -1919,44 +2033,46 @@
       <c r="E75" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="F75" s="2"/>
-      <c r="G75" s="6" t="s">
-        <v>10</v>
-      </c>
+      <c r="F75" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="G75" s="2"/>
       <c r="H75" s="6" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A76" s="12" t="s">
-        <v>74</v>
-      </c>
-      <c r="B76" s="12"/>
+      <c r="A76" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="B76" s="11"/>
       <c r="C76" s="6" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="D76" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="E76" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F76" s="3"/>
-      <c r="G76" s="3"/>
-      <c r="H76" s="3" t="s">
-        <v>79</v>
+        <v>8</v>
+      </c>
+      <c r="E76" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="F76" s="2"/>
+      <c r="G76" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="H76" s="6" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A77" s="12" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="B77" s="12"/>
-      <c r="C77" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="D77" s="7" t="s">
-        <v>31</v>
+      <c r="C77" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D77" s="6" t="s">
+        <v>29</v>
       </c>
       <c r="E77" s="3" t="s">
         <v>9</v>
@@ -1964,88 +2080,112 @@
       <c r="F77" s="3"/>
       <c r="G77" s="3"/>
       <c r="H77" s="3" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="78" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A78" s="12" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="B78" s="12"/>
       <c r="C78" s="3" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D78" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="E78" s="3"/>
+        <v>29</v>
+      </c>
+      <c r="E78" s="3" t="s">
+        <v>9</v>
+      </c>
       <c r="F78" s="3"/>
       <c r="G78" s="3"/>
       <c r="H78" s="3" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A79" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="B79" s="9"/>
-      <c r="C79" s="9"/>
-      <c r="D79" s="9"/>
-      <c r="E79" s="9"/>
-      <c r="F79" s="9"/>
-      <c r="G79" s="9"/>
-      <c r="H79" s="9"/>
+        <v>78</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A79" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="B79" s="12"/>
+      <c r="C79" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="D79" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="E79" s="3"/>
+      <c r="F79" s="3"/>
+      <c r="G79" s="3"/>
+      <c r="H79" s="3" t="s">
+        <v>79</v>
+      </c>
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A80" s="9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B80" s="9"/>
-      <c r="C80" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D80" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E80" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F80" s="9" t="s">
-        <v>14</v>
-      </c>
+      <c r="C80" s="9"/>
+      <c r="D80" s="9"/>
+      <c r="E80" s="9"/>
+      <c r="F80" s="9"/>
       <c r="G80" s="9"/>
       <c r="H80" s="9"/>
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A81" s="8"/>
-      <c r="B81" s="8"/>
-      <c r="C81" s="4"/>
-      <c r="D81" s="5"/>
-      <c r="E81" s="5"/>
-      <c r="F81" s="8"/>
-      <c r="G81" s="8"/>
-      <c r="H81" s="8"/>
+      <c r="A81" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="B81" s="9"/>
+      <c r="C81" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D81" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E81" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F81" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="G81" s="9"/>
+      <c r="H81" s="9"/>
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A82" s="8"/>
-      <c r="B82" s="8"/>
-      <c r="C82" s="4"/>
-      <c r="D82" s="5"/>
-      <c r="E82" s="5"/>
-      <c r="F82" s="8"/>
-      <c r="G82" s="8"/>
-      <c r="H82" s="8"/>
+      <c r="A82" s="14" t="s">
+        <v>135</v>
+      </c>
+      <c r="B82" s="14"/>
+      <c r="C82" s="15"/>
+      <c r="D82" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="E82" s="16"/>
+      <c r="F82" s="14" t="s">
+        <v>137</v>
+      </c>
+      <c r="G82" s="14"/>
+      <c r="H82" s="14"/>
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A83" s="8"/>
-      <c r="B83" s="8"/>
-      <c r="C83" s="4"/>
-      <c r="D83" s="5"/>
-      <c r="E83" s="5"/>
-      <c r="F83" s="8"/>
-      <c r="G83" s="8"/>
-      <c r="H83" s="8"/>
+      <c r="A83" s="14" t="s">
+        <v>136</v>
+      </c>
+      <c r="B83" s="14"/>
+      <c r="C83" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="D83" s="16"/>
+      <c r="E83" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="F83" s="14" t="s">
+        <v>71</v>
+      </c>
+      <c r="G83" s="14"/>
+      <c r="H83" s="14"/>
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A84" s="8"/>
@@ -2057,26 +2197,22 @@
       <c r="G84" s="8"/>
       <c r="H84" s="8"/>
     </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A87" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B87" s="10" t="s">
-        <v>82</v>
-      </c>
-      <c r="C87" s="11"/>
-      <c r="D87" s="11"/>
-      <c r="E87" s="11"/>
-      <c r="F87" s="11"/>
-      <c r="G87" s="11"/>
-      <c r="H87" s="11"/>
+    <row r="85" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A85" s="8"/>
+      <c r="B85" s="8"/>
+      <c r="C85" s="4"/>
+      <c r="D85" s="5"/>
+      <c r="E85" s="5"/>
+      <c r="F85" s="8"/>
+      <c r="G85" s="8"/>
+      <c r="H85" s="8"/>
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A88" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B88" s="10" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="C88" s="11"/>
       <c r="D88" s="11"/>
@@ -2086,70 +2222,62 @@
       <c r="H88" s="11"/>
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A89" s="13" t="s">
+      <c r="A89" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B89" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="C89" s="11"/>
+      <c r="D89" s="11"/>
+      <c r="E89" s="11"/>
+      <c r="F89" s="11"/>
+      <c r="G89" s="11"/>
+      <c r="H89" s="11"/>
+    </row>
+    <row r="90" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A90" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="B89" s="13"/>
-      <c r="C89" s="13"/>
-      <c r="D89" s="13"/>
-      <c r="E89" s="13"/>
-      <c r="F89" s="13"/>
-      <c r="G89" s="13"/>
-      <c r="H89" s="13"/>
-    </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A90" s="9" t="s">
+      <c r="B90" s="13"/>
+      <c r="C90" s="13"/>
+      <c r="D90" s="13"/>
+      <c r="E90" s="13"/>
+      <c r="F90" s="13"/>
+      <c r="G90" s="13"/>
+      <c r="H90" s="13"/>
+    </row>
+    <row r="91" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A91" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="B90" s="9"/>
-      <c r="C90" s="1" t="s">
+      <c r="B91" s="9"/>
+      <c r="C91" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D90" s="1" t="s">
+      <c r="D91" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E90" s="1" t="s">
+      <c r="E91" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F90" s="1" t="s">
+      <c r="F91" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="G90" s="1" t="s">
+      <c r="G91" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="H90" s="1" t="s">
+      <c r="H91" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="91" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A91" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="B91" s="11"/>
-      <c r="C91" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="D91" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="E91" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="F91" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="G91" s="2"/>
-      <c r="H91" s="6" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A92" s="10" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="B92" s="11"/>
       <c r="C92" s="6" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D92" s="6" t="s">
         <v>8</v>
@@ -2157,66 +2285,68 @@
       <c r="E92" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="F92" s="2"/>
-      <c r="G92" s="6" t="s">
-        <v>10</v>
-      </c>
+      <c r="F92" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="G92" s="2"/>
       <c r="H92" s="6" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="93" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A93" s="12" t="s">
-        <v>86</v>
-      </c>
-      <c r="B93" s="12"/>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A93" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="B93" s="11"/>
       <c r="C93" s="6" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D93" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E93" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="F93" s="2"/>
+      <c r="G93" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="H93" s="6" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A94" s="12" t="s">
+        <v>84</v>
+      </c>
+      <c r="B94" s="12"/>
+      <c r="C94" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="D94" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="E94" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F94" s="3"/>
+      <c r="G94" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H94" s="3" t="s">
         <v>91</v>
-      </c>
-      <c r="E93" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F93" s="3"/>
-      <c r="G93" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="H93" s="3" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A94" s="12" t="s">
-        <v>87</v>
-      </c>
-      <c r="B94" s="12"/>
-      <c r="C94" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="D94" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="E94" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F94" s="3"/>
-      <c r="G94" s="3"/>
-      <c r="H94" s="3" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A95" s="12" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="B95" s="12"/>
       <c r="C95" s="3" t="s">
         <v>27</v>
       </c>
       <c r="D95" s="7" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E95" s="3" t="s">
         <v>9</v>
@@ -2224,19 +2354,19 @@
       <c r="F95" s="3"/>
       <c r="G95" s="3"/>
       <c r="H95" s="3" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A96" s="12" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="B96" s="12"/>
       <c r="C96" s="3" t="s">
-        <v>64</v>
+        <v>27</v>
       </c>
       <c r="D96" s="7" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E96" s="3" t="s">
         <v>9</v>
@@ -2244,78 +2374,96 @@
       <c r="F96" s="3"/>
       <c r="G96" s="3"/>
       <c r="H96" s="3" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="97" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A97" s="12" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="B97" s="12"/>
       <c r="C97" s="3" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D97" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="E97" s="3"/>
+        <v>29</v>
+      </c>
+      <c r="E97" s="3" t="s">
+        <v>9</v>
+      </c>
       <c r="F97" s="3"/>
       <c r="G97" s="3"/>
       <c r="H97" s="3" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A98" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="B98" s="9"/>
-      <c r="C98" s="9"/>
-      <c r="D98" s="9"/>
-      <c r="E98" s="9"/>
-      <c r="F98" s="9"/>
-      <c r="G98" s="9"/>
-      <c r="H98" s="9"/>
+        <v>94</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A98" s="12" t="s">
+        <v>88</v>
+      </c>
+      <c r="B98" s="12"/>
+      <c r="C98" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="D98" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="E98" s="3"/>
+      <c r="F98" s="3"/>
+      <c r="G98" s="3"/>
+      <c r="H98" s="3" t="s">
+        <v>79</v>
+      </c>
     </row>
     <row r="99" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A99" s="9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B99" s="9"/>
-      <c r="C99" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D99" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E99" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F99" s="9" t="s">
-        <v>14</v>
-      </c>
+      <c r="C99" s="9"/>
+      <c r="D99" s="9"/>
+      <c r="E99" s="9"/>
+      <c r="F99" s="9"/>
       <c r="G99" s="9"/>
       <c r="H99" s="9"/>
     </row>
     <row r="100" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A100" s="8"/>
-      <c r="B100" s="8"/>
-      <c r="C100" s="4"/>
-      <c r="D100" s="5"/>
-      <c r="E100" s="5"/>
-      <c r="F100" s="8"/>
-      <c r="G100" s="8"/>
-      <c r="H100" s="8"/>
+      <c r="A100" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="B100" s="9"/>
+      <c r="C100" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D100" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E100" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F100" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="G100" s="9"/>
+      <c r="H100" s="9"/>
     </row>
     <row r="101" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A101" s="8"/>
-      <c r="B101" s="8"/>
-      <c r="C101" s="4"/>
-      <c r="D101" s="5"/>
-      <c r="E101" s="5"/>
-      <c r="F101" s="8"/>
-      <c r="G101" s="8"/>
-      <c r="H101" s="8"/>
+      <c r="A101" s="14" t="s">
+        <v>140</v>
+      </c>
+      <c r="B101" s="14"/>
+      <c r="C101" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="D101" s="16"/>
+      <c r="E101" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="F101" s="14" t="s">
+        <v>82</v>
+      </c>
+      <c r="G101" s="14"/>
+      <c r="H101" s="14"/>
     </row>
     <row r="102" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A102" s="8"/>
@@ -2337,26 +2485,22 @@
       <c r="G103" s="8"/>
       <c r="H103" s="8"/>
     </row>
-    <row r="106" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A106" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B106" s="10" t="s">
-        <v>97</v>
-      </c>
-      <c r="C106" s="11"/>
-      <c r="D106" s="11"/>
-      <c r="E106" s="11"/>
-      <c r="F106" s="11"/>
-      <c r="G106" s="11"/>
-      <c r="H106" s="11"/>
+    <row r="104" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A104" s="8"/>
+      <c r="B104" s="8"/>
+      <c r="C104" s="4"/>
+      <c r="D104" s="5"/>
+      <c r="E104" s="5"/>
+      <c r="F104" s="8"/>
+      <c r="G104" s="8"/>
+      <c r="H104" s="8"/>
     </row>
     <row r="107" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A107" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B107" s="10" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="C107" s="11"/>
       <c r="D107" s="11"/>
@@ -2366,68 +2510,60 @@
       <c r="H107" s="11"/>
     </row>
     <row r="108" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A108" s="13"/>
-      <c r="B108" s="13"/>
-      <c r="C108" s="13"/>
-      <c r="D108" s="13"/>
-      <c r="E108" s="13"/>
-      <c r="F108" s="13"/>
-      <c r="G108" s="13"/>
-      <c r="H108" s="13"/>
+      <c r="A108" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B108" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="C108" s="11"/>
+      <c r="D108" s="11"/>
+      <c r="E108" s="11"/>
+      <c r="F108" s="11"/>
+      <c r="G108" s="11"/>
+      <c r="H108" s="11"/>
     </row>
     <row r="109" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A109" s="9" t="s">
+      <c r="A109" s="13"/>
+      <c r="B109" s="13"/>
+      <c r="C109" s="13"/>
+      <c r="D109" s="13"/>
+      <c r="E109" s="13"/>
+      <c r="F109" s="13"/>
+      <c r="G109" s="13"/>
+      <c r="H109" s="13"/>
+    </row>
+    <row r="110" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A110" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="B109" s="9"/>
-      <c r="C109" s="1" t="s">
+      <c r="B110" s="9"/>
+      <c r="C110" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D109" s="1" t="s">
+      <c r="D110" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E109" s="1" t="s">
+      <c r="E110" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F109" s="1" t="s">
+      <c r="F110" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="G109" s="1" t="s">
+      <c r="G110" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="H109" s="1" t="s">
+      <c r="H110" s="1" t="s">
         <v>1</v>
-      </c>
-    </row>
-    <row r="110" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A110" s="10" t="s">
-        <v>99</v>
-      </c>
-      <c r="B110" s="11"/>
-      <c r="C110" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="D110" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="E110" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="F110" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="G110" s="2"/>
-      <c r="H110" s="6" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="111" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A111" s="10" t="s">
-        <v>85</v>
+        <v>97</v>
       </c>
       <c r="B111" s="11"/>
       <c r="C111" s="6" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D111" s="6" t="s">
         <v>8</v>
@@ -2435,44 +2571,46 @@
       <c r="E111" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="F111" s="2"/>
-      <c r="G111" s="6" t="s">
-        <v>10</v>
-      </c>
+      <c r="F111" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="G111" s="2"/>
       <c r="H111" s="6" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="112" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A112" s="12" t="s">
-        <v>100</v>
-      </c>
-      <c r="B112" s="12"/>
+        <v>102</v>
+      </c>
+    </row>
+    <row r="112" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A112" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="B112" s="11"/>
       <c r="C112" s="6" t="s">
-        <v>101</v>
-      </c>
-      <c r="D112" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="E112" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F112" s="3"/>
-      <c r="G112" s="3"/>
-      <c r="H112" s="3" t="s">
-        <v>106</v>
+        <v>30</v>
+      </c>
+      <c r="D112" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E112" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="F112" s="2"/>
+      <c r="G112" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="H112" s="6" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="113" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A113" s="12" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="B113" s="12"/>
-      <c r="C113" s="3" t="s">
-        <v>27</v>
+      <c r="C113" s="6" t="s">
+        <v>99</v>
       </c>
       <c r="D113" s="7" t="s">
-        <v>31</v>
+        <v>117</v>
       </c>
       <c r="E113" s="3" t="s">
         <v>9</v>
@@ -2480,16 +2618,16 @@
       <c r="F113" s="3"/>
       <c r="G113" s="3"/>
       <c r="H113" s="3" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="114" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="114" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A114" s="12" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="B114" s="12"/>
       <c r="C114" s="3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D114" s="7" t="s">
         <v>29</v>
@@ -2500,60 +2638,78 @@
       <c r="F114" s="3"/>
       <c r="G114" s="3"/>
       <c r="H114" s="3" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="115" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A115" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="B115" s="9"/>
-      <c r="C115" s="9"/>
-      <c r="D115" s="9"/>
-      <c r="E115" s="9"/>
-      <c r="F115" s="9"/>
-      <c r="G115" s="9"/>
-      <c r="H115" s="9"/>
+        <v>105</v>
+      </c>
+    </row>
+    <row r="115" spans="1:8" ht="72" x14ac:dyDescent="0.3">
+      <c r="A115" s="12" t="s">
+        <v>101</v>
+      </c>
+      <c r="B115" s="12"/>
+      <c r="C115" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="D115" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="E115" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F115" s="3"/>
+      <c r="G115" s="3"/>
+      <c r="H115" s="3" t="s">
+        <v>125</v>
+      </c>
     </row>
     <row r="116" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A116" s="9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B116" s="9"/>
-      <c r="C116" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D116" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E116" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F116" s="9" t="s">
-        <v>14</v>
-      </c>
+      <c r="C116" s="9"/>
+      <c r="D116" s="9"/>
+      <c r="E116" s="9"/>
+      <c r="F116" s="9"/>
       <c r="G116" s="9"/>
       <c r="H116" s="9"/>
     </row>
     <row r="117" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A117" s="8"/>
-      <c r="B117" s="8"/>
-      <c r="C117" s="4"/>
-      <c r="D117" s="5"/>
-      <c r="E117" s="5"/>
-      <c r="F117" s="8"/>
-      <c r="G117" s="8"/>
-      <c r="H117" s="8"/>
+      <c r="A117" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="B117" s="9"/>
+      <c r="C117" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D117" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E117" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F117" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="G117" s="9"/>
+      <c r="H117" s="9"/>
     </row>
     <row r="118" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A118" s="8"/>
-      <c r="B118" s="8"/>
-      <c r="C118" s="4"/>
-      <c r="D118" s="5"/>
-      <c r="E118" s="5"/>
-      <c r="F118" s="8"/>
-      <c r="G118" s="8"/>
-      <c r="H118" s="8"/>
+      <c r="A118" s="14" t="s">
+        <v>141</v>
+      </c>
+      <c r="B118" s="14"/>
+      <c r="C118" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="D118" s="15"/>
+      <c r="E118" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="F118" s="14" t="s">
+        <v>97</v>
+      </c>
+      <c r="G118" s="14"/>
+      <c r="H118" s="14"/>
     </row>
     <row r="119" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A119" s="8"/>
@@ -2575,26 +2731,22 @@
       <c r="G120" s="8"/>
       <c r="H120" s="8"/>
     </row>
-    <row r="123" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A123" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B123" s="10" t="s">
-        <v>109</v>
-      </c>
-      <c r="C123" s="11"/>
-      <c r="D123" s="11"/>
-      <c r="E123" s="11"/>
-      <c r="F123" s="11"/>
-      <c r="G123" s="11"/>
-      <c r="H123" s="11"/>
+    <row r="121" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A121" s="8"/>
+      <c r="B121" s="8"/>
+      <c r="C121" s="4"/>
+      <c r="D121" s="5"/>
+      <c r="E121" s="5"/>
+      <c r="F121" s="8"/>
+      <c r="G121" s="8"/>
+      <c r="H121" s="8"/>
     </row>
     <row r="124" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A124" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B124" s="10" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="C124" s="11"/>
       <c r="D124" s="11"/>
@@ -2604,68 +2756,60 @@
       <c r="H124" s="11"/>
     </row>
     <row r="125" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A125" s="13"/>
-      <c r="B125" s="13"/>
-      <c r="C125" s="13"/>
-      <c r="D125" s="13"/>
-      <c r="E125" s="13"/>
-      <c r="F125" s="13"/>
-      <c r="G125" s="13"/>
-      <c r="H125" s="13"/>
+      <c r="A125" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B125" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="C125" s="11"/>
+      <c r="D125" s="11"/>
+      <c r="E125" s="11"/>
+      <c r="F125" s="11"/>
+      <c r="G125" s="11"/>
+      <c r="H125" s="11"/>
     </row>
     <row r="126" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A126" s="9" t="s">
+      <c r="A126" s="13"/>
+      <c r="B126" s="13"/>
+      <c r="C126" s="13"/>
+      <c r="D126" s="13"/>
+      <c r="E126" s="13"/>
+      <c r="F126" s="13"/>
+      <c r="G126" s="13"/>
+      <c r="H126" s="13"/>
+    </row>
+    <row r="127" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A127" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="B126" s="9"/>
-      <c r="C126" s="1" t="s">
+      <c r="B127" s="9"/>
+      <c r="C127" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D126" s="1" t="s">
+      <c r="D127" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E126" s="1" t="s">
+      <c r="E127" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F126" s="1" t="s">
+      <c r="F127" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="G126" s="1" t="s">
+      <c r="G127" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="H126" s="1" t="s">
+      <c r="H127" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="127" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A127" s="10" t="s">
-        <v>111</v>
-      </c>
-      <c r="B127" s="11"/>
-      <c r="C127" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="D127" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="E127" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="F127" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="G127" s="2"/>
-      <c r="H127" s="6" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="128" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A128" s="10" t="s">
-        <v>85</v>
+        <v>108</v>
       </c>
       <c r="B128" s="11"/>
       <c r="C128" s="6" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D128" s="6" t="s">
         <v>8</v>
@@ -2673,44 +2817,46 @@
       <c r="E128" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="F128" s="2"/>
-      <c r="G128" s="6" t="s">
-        <v>10</v>
-      </c>
+      <c r="F128" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="G128" s="2"/>
       <c r="H128" s="6" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="129" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A129" s="12" t="s">
         <v>112</v>
       </c>
-      <c r="B129" s="12"/>
+    </row>
+    <row r="129" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A129" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="B129" s="11"/>
       <c r="C129" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="D129" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="E129" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F129" s="3"/>
-      <c r="G129" s="3"/>
-      <c r="H129" s="3" t="s">
-        <v>117</v>
+        <v>30</v>
+      </c>
+      <c r="D129" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E129" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="F129" s="2"/>
+      <c r="G129" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="H129" s="6" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="130" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A130" s="12" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="B130" s="12"/>
-      <c r="C130" s="3" t="s">
-        <v>27</v>
+      <c r="C130" s="6" t="s">
+        <v>62</v>
       </c>
       <c r="D130" s="7" t="s">
-        <v>31</v>
+        <v>111</v>
       </c>
       <c r="E130" s="3" t="s">
         <v>9</v>
@@ -2718,70 +2864,94 @@
       <c r="F130" s="3"/>
       <c r="G130" s="3"/>
       <c r="H130" s="3" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
     </row>
     <row r="131" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A131" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="B131" s="9"/>
-      <c r="C131" s="9"/>
-      <c r="D131" s="9"/>
-      <c r="E131" s="9"/>
-      <c r="F131" s="9"/>
-      <c r="G131" s="9"/>
-      <c r="H131" s="9"/>
+      <c r="A131" s="12" t="s">
+        <v>110</v>
+      </c>
+      <c r="B131" s="12"/>
+      <c r="C131" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D131" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="E131" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F131" s="3"/>
+      <c r="G131" s="3"/>
+      <c r="H131" s="3" t="s">
+        <v>115</v>
+      </c>
     </row>
     <row r="132" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A132" s="9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B132" s="9"/>
-      <c r="C132" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D132" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E132" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F132" s="9" t="s">
-        <v>14</v>
-      </c>
+      <c r="C132" s="9"/>
+      <c r="D132" s="9"/>
+      <c r="E132" s="9"/>
+      <c r="F132" s="9"/>
       <c r="G132" s="9"/>
       <c r="H132" s="9"/>
     </row>
     <row r="133" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A133" s="8"/>
-      <c r="B133" s="8"/>
-      <c r="C133" s="4"/>
-      <c r="D133" s="5"/>
-      <c r="E133" s="5"/>
-      <c r="F133" s="8"/>
-      <c r="G133" s="8"/>
-      <c r="H133" s="8"/>
+      <c r="A133" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="B133" s="9"/>
+      <c r="C133" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D133" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E133" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F133" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="G133" s="9"/>
+      <c r="H133" s="9"/>
     </row>
     <row r="134" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A134" s="8"/>
-      <c r="B134" s="8"/>
-      <c r="C134" s="4"/>
-      <c r="D134" s="5"/>
-      <c r="E134" s="5"/>
-      <c r="F134" s="8"/>
-      <c r="G134" s="8"/>
-      <c r="H134" s="8"/>
+      <c r="A134" s="14" t="s">
+        <v>129</v>
+      </c>
+      <c r="B134" s="14"/>
+      <c r="C134" s="15"/>
+      <c r="D134" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="E134" s="16"/>
+      <c r="F134" s="14" t="s">
+        <v>131</v>
+      </c>
+      <c r="G134" s="14"/>
+      <c r="H134" s="14"/>
     </row>
     <row r="135" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A135" s="8"/>
-      <c r="B135" s="8"/>
-      <c r="C135" s="4"/>
-      <c r="D135" s="5"/>
-      <c r="E135" s="5"/>
-      <c r="F135" s="8"/>
-      <c r="G135" s="8"/>
-      <c r="H135" s="8"/>
+      <c r="A135" s="14" t="s">
+        <v>130</v>
+      </c>
+      <c r="B135" s="14"/>
+      <c r="C135" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="D135" s="16"/>
+      <c r="E135" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="F135" s="14" t="s">
+        <v>108</v>
+      </c>
+      <c r="G135" s="14"/>
+      <c r="H135" s="14"/>
     </row>
     <row r="136" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A136" s="8"/>
@@ -2793,18 +2963,18 @@
       <c r="G136" s="8"/>
       <c r="H136" s="8"/>
     </row>
+    <row r="137" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A137" s="8"/>
+      <c r="B137" s="8"/>
+      <c r="C137" s="4"/>
+      <c r="D137" s="5"/>
+      <c r="E137" s="5"/>
+      <c r="F137" s="8"/>
+      <c r="G137" s="8"/>
+      <c r="H137" s="8"/>
+    </row>
   </sheetData>
-  <mergeCells count="162">
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="F16:H16"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="F13:H13"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="F14:H14"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="F15:H15"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="F12:H12"/>
+  <mergeCells count="163">
     <mergeCell ref="B1:H1"/>
     <mergeCell ref="B2:H2"/>
     <mergeCell ref="A3:H3"/>
@@ -2825,6 +2995,16 @@
     <mergeCell ref="A21:H21"/>
     <mergeCell ref="A22:B22"/>
     <mergeCell ref="A23:B23"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="F16:H16"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="F13:H13"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="F14:H14"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="F15:H15"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="F12:H12"/>
     <mergeCell ref="A31:B31"/>
     <mergeCell ref="F31:H31"/>
     <mergeCell ref="A32:B32"/>
@@ -2838,125 +3018,126 @@
     <mergeCell ref="F30:H30"/>
     <mergeCell ref="A41:B41"/>
     <mergeCell ref="A42:B42"/>
-    <mergeCell ref="A43:B43"/>
-    <mergeCell ref="A44:H44"/>
+    <mergeCell ref="A44:B44"/>
+    <mergeCell ref="A45:H45"/>
     <mergeCell ref="B36:H36"/>
     <mergeCell ref="B37:H37"/>
     <mergeCell ref="A38:H38"/>
     <mergeCell ref="A39:B39"/>
     <mergeCell ref="A40:B40"/>
-    <mergeCell ref="A48:B48"/>
-    <mergeCell ref="F48:H48"/>
+    <mergeCell ref="A43:B43"/>
     <mergeCell ref="A49:B49"/>
     <mergeCell ref="F49:H49"/>
-    <mergeCell ref="B52:H52"/>
-    <mergeCell ref="A45:B45"/>
-    <mergeCell ref="F45:H45"/>
+    <mergeCell ref="A50:B50"/>
+    <mergeCell ref="F50:H50"/>
+    <mergeCell ref="B53:H53"/>
     <mergeCell ref="A46:B46"/>
     <mergeCell ref="F46:H46"/>
     <mergeCell ref="A47:B47"/>
     <mergeCell ref="F47:H47"/>
-    <mergeCell ref="A58:B58"/>
-    <mergeCell ref="A61:B61"/>
-    <mergeCell ref="A62:H62"/>
-    <mergeCell ref="A63:B63"/>
-    <mergeCell ref="F63:H63"/>
-    <mergeCell ref="B53:H53"/>
-    <mergeCell ref="A54:H54"/>
-    <mergeCell ref="A55:B55"/>
+    <mergeCell ref="A48:B48"/>
+    <mergeCell ref="F48:H48"/>
+    <mergeCell ref="A59:B59"/>
+    <mergeCell ref="A62:B62"/>
+    <mergeCell ref="A63:H63"/>
+    <mergeCell ref="A64:B64"/>
+    <mergeCell ref="F64:H64"/>
+    <mergeCell ref="B54:H54"/>
+    <mergeCell ref="A55:H55"/>
     <mergeCell ref="A56:B56"/>
     <mergeCell ref="A57:B57"/>
-    <mergeCell ref="A67:B67"/>
-    <mergeCell ref="F67:H67"/>
-    <mergeCell ref="A59:B59"/>
+    <mergeCell ref="A58:B58"/>
+    <mergeCell ref="B72:H72"/>
+    <mergeCell ref="A73:H73"/>
+    <mergeCell ref="A74:B74"/>
+    <mergeCell ref="A75:B75"/>
+    <mergeCell ref="A76:B76"/>
+    <mergeCell ref="A68:B68"/>
+    <mergeCell ref="F68:H68"/>
     <mergeCell ref="A60:B60"/>
-    <mergeCell ref="B70:H70"/>
-    <mergeCell ref="A64:B64"/>
-    <mergeCell ref="F64:H64"/>
+    <mergeCell ref="A61:B61"/>
+    <mergeCell ref="B71:H71"/>
     <mergeCell ref="A65:B65"/>
     <mergeCell ref="F65:H65"/>
     <mergeCell ref="A66:B66"/>
     <mergeCell ref="F66:H66"/>
-    <mergeCell ref="A76:B76"/>
-    <mergeCell ref="A77:B77"/>
-    <mergeCell ref="A78:B78"/>
-    <mergeCell ref="A79:H79"/>
-    <mergeCell ref="B71:H71"/>
-    <mergeCell ref="A72:H72"/>
-    <mergeCell ref="A73:B73"/>
-    <mergeCell ref="A74:B74"/>
-    <mergeCell ref="A75:B75"/>
-    <mergeCell ref="A83:B83"/>
-    <mergeCell ref="F83:H83"/>
-    <mergeCell ref="A84:B84"/>
-    <mergeCell ref="F84:H84"/>
-    <mergeCell ref="B87:H87"/>
-    <mergeCell ref="A80:B80"/>
-    <mergeCell ref="F80:H80"/>
+    <mergeCell ref="A67:B67"/>
+    <mergeCell ref="F67:H67"/>
     <mergeCell ref="A81:B81"/>
     <mergeCell ref="F81:H81"/>
     <mergeCell ref="A82:B82"/>
     <mergeCell ref="F82:H82"/>
-    <mergeCell ref="A93:B93"/>
-    <mergeCell ref="A94:B94"/>
-    <mergeCell ref="A97:B97"/>
-    <mergeCell ref="A98:H98"/>
-    <mergeCell ref="A99:B99"/>
-    <mergeCell ref="F99:H99"/>
-    <mergeCell ref="B88:H88"/>
-    <mergeCell ref="A89:H89"/>
-    <mergeCell ref="A90:B90"/>
+    <mergeCell ref="A83:B83"/>
+    <mergeCell ref="F83:H83"/>
+    <mergeCell ref="A77:B77"/>
+    <mergeCell ref="A78:B78"/>
+    <mergeCell ref="A79:B79"/>
+    <mergeCell ref="A80:H80"/>
+    <mergeCell ref="B89:H89"/>
+    <mergeCell ref="A90:H90"/>
     <mergeCell ref="A91:B91"/>
     <mergeCell ref="A92:B92"/>
-    <mergeCell ref="A95:B95"/>
+    <mergeCell ref="A93:B93"/>
     <mergeCell ref="A96:B96"/>
-    <mergeCell ref="B106:H106"/>
-    <mergeCell ref="A100:B100"/>
-    <mergeCell ref="F100:H100"/>
+    <mergeCell ref="A97:B97"/>
+    <mergeCell ref="A84:B84"/>
+    <mergeCell ref="F84:H84"/>
+    <mergeCell ref="A85:B85"/>
+    <mergeCell ref="F85:H85"/>
+    <mergeCell ref="B88:H88"/>
     <mergeCell ref="A101:B101"/>
     <mergeCell ref="F101:H101"/>
     <mergeCell ref="A102:B102"/>
     <mergeCell ref="F102:H102"/>
-    <mergeCell ref="A112:B112"/>
+    <mergeCell ref="A103:B103"/>
+    <mergeCell ref="F103:H103"/>
     <mergeCell ref="A113:B113"/>
     <mergeCell ref="A114:B114"/>
-    <mergeCell ref="B107:H107"/>
-    <mergeCell ref="A108:H108"/>
-    <mergeCell ref="A109:B109"/>
+    <mergeCell ref="A94:B94"/>
+    <mergeCell ref="A95:B95"/>
+    <mergeCell ref="A98:B98"/>
+    <mergeCell ref="A99:H99"/>
+    <mergeCell ref="A100:B100"/>
+    <mergeCell ref="F100:H100"/>
+    <mergeCell ref="A115:B115"/>
+    <mergeCell ref="B108:H108"/>
+    <mergeCell ref="A109:H109"/>
     <mergeCell ref="A110:B110"/>
     <mergeCell ref="A111:B111"/>
-    <mergeCell ref="A103:B103"/>
-    <mergeCell ref="F103:H103"/>
+    <mergeCell ref="A112:B112"/>
+    <mergeCell ref="A104:B104"/>
+    <mergeCell ref="F104:H104"/>
+    <mergeCell ref="A119:B119"/>
+    <mergeCell ref="F119:H119"/>
+    <mergeCell ref="B107:H107"/>
+    <mergeCell ref="A120:B120"/>
+    <mergeCell ref="F120:H120"/>
+    <mergeCell ref="A121:B121"/>
+    <mergeCell ref="F121:H121"/>
+    <mergeCell ref="A116:H116"/>
+    <mergeCell ref="A117:B117"/>
+    <mergeCell ref="F117:H117"/>
     <mergeCell ref="A118:B118"/>
     <mergeCell ref="F118:H118"/>
-    <mergeCell ref="A119:B119"/>
-    <mergeCell ref="F119:H119"/>
-    <mergeCell ref="A120:B120"/>
-    <mergeCell ref="F120:H120"/>
-    <mergeCell ref="A115:H115"/>
-    <mergeCell ref="A116:B116"/>
-    <mergeCell ref="F116:H116"/>
-    <mergeCell ref="A117:B117"/>
-    <mergeCell ref="F117:H117"/>
-    <mergeCell ref="A128:B128"/>
     <mergeCell ref="A129:B129"/>
     <mergeCell ref="A130:B130"/>
-    <mergeCell ref="A131:H131"/>
-    <mergeCell ref="B123:H123"/>
+    <mergeCell ref="A131:B131"/>
+    <mergeCell ref="A132:H132"/>
     <mergeCell ref="B124:H124"/>
-    <mergeCell ref="A125:H125"/>
-    <mergeCell ref="A126:B126"/>
+    <mergeCell ref="B125:H125"/>
+    <mergeCell ref="A126:H126"/>
     <mergeCell ref="A127:B127"/>
-    <mergeCell ref="A135:B135"/>
-    <mergeCell ref="F135:H135"/>
+    <mergeCell ref="A128:B128"/>
     <mergeCell ref="A136:B136"/>
     <mergeCell ref="F136:H136"/>
-    <mergeCell ref="A132:B132"/>
-    <mergeCell ref="F132:H132"/>
+    <mergeCell ref="A137:B137"/>
+    <mergeCell ref="F137:H137"/>
     <mergeCell ref="A133:B133"/>
     <mergeCell ref="F133:H133"/>
     <mergeCell ref="A134:B134"/>
     <mergeCell ref="F134:H134"/>
+    <mergeCell ref="A135:B135"/>
+    <mergeCell ref="F135:H135"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="300" r:id="rId1"/>
